--- a/tool-packages/excel2all/__test__/test-excel-files/LongColKeySetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/LongColKeySetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24480" windowHeight="9980"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="11" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="102">
   <si>
     <t>LongColKeySetting</t>
   </si>
@@ -25,6 +25,9 @@
     <t>数字</t>
   </si>
   <si>
+    <t>布尔值</t>
+  </si>
+  <si>
     <t>数字数组</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>[int]</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>field_int</t>
+  </si>
+  <si>
+    <t>field_bool</t>
   </si>
   <si>
     <t>field_int_array</t>
@@ -318,9 +327,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -333,13 +342,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -348,9 +350,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,9 +363,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,6 +379,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,10 +423,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,9 +447,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,29 +456,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -453,6 +469,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -462,22 +486,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,31 +501,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,13 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,55 +621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,13 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,37 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,78 +692,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -783,164 +720,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -952,56 +964,56 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="警告文本 2" xfId="2"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
-    <cellStyle name="货币" xfId="9" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="10" builtinId="37"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="13" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="14" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="15" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16" builtinId="44"/>
-    <cellStyle name="计算" xfId="17" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29"/>
-    <cellStyle name="适中" xfId="19" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="20" builtinId="46"/>
-    <cellStyle name="好" xfId="21" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="22" builtinId="30"/>
-    <cellStyle name="汇总" xfId="23" builtinId="25"/>
-    <cellStyle name="差" xfId="24" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="25" builtinId="23"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="27" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="29" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="30" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="31" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
-    <cellStyle name="标题" xfId="35" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
-    <cellStyle name="注释" xfId="39" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="警告文本 2" xfId="50"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1277,31 +1289,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BE28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="30.375" customWidth="1"/>
-    <col min="12" max="12" width="28.25" customWidth="1"/>
+    <col min="3" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="30.375" customWidth="1"/>
+    <col min="13" max="13" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:57">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1323,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1339,2609 +1351,2689 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:56">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:57">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AD2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:56">
-      <c r="B5" s="2" t="s">
-        <v>80</v>
+    <row r="5" spans="2:57">
+      <c r="B5" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>81</v>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
         <v>84</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="T5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AG5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AJ5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AK5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AL5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AM5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AN5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AO5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AP5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AQ5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AR5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AT5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AU5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AV5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AW5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AX5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AY5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AZ5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BA5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BB5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BC5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BD5" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:56">
-      <c r="B6" s="2" t="s">
-        <v>86</v>
+    <row r="6" spans="2:57">
+      <c r="B6" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>81</v>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
         <v>87</v>
       </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="s">
-        <v>83</v>
-      </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="T6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AJ6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AK6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AL6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AM6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AN6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AO6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AP6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AQ6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AR6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AT6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AU6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AV6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AW6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AX6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AY6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AZ6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BA6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BB6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BC6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BD6" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:56">
-      <c r="B7" s="2" t="s">
-        <v>88</v>
+    <row r="7" spans="2:57">
+      <c r="B7" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C7">
         <v>60000</v>
       </c>
-      <c r="D7" t="s">
-        <v>89</v>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7">
+        <v>60000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" t="s">
+        <v>86</v>
+      </c>
+      <c r="V7" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>84</v>
       </c>
-      <c r="H7">
-        <v>60000</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" t="s">
-        <v>83</v>
-      </c>
-      <c r="S7" t="s">
-        <v>83</v>
-      </c>
-      <c r="T7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" t="s">
-        <v>83</v>
-      </c>
-      <c r="W7" t="s">
-        <v>83</v>
-      </c>
-      <c r="X7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>83</v>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:56">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" t="s">
-        <v>92</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>92</v>
-      </c>
-      <c r="R8" t="s">
-        <v>92</v>
-      </c>
-      <c r="S8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" t="s">
-        <v>92</v>
-      </c>
-      <c r="U8" t="s">
-        <v>92</v>
-      </c>
-      <c r="V8" t="s">
-        <v>92</v>
-      </c>
-      <c r="W8" t="s">
-        <v>92</v>
-      </c>
-      <c r="X8" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>92</v>
+    <row r="9" spans="2:57">
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" t="s">
+        <v>95</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:56">
-      <c r="B9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>92</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U9" t="s">
-        <v>92</v>
-      </c>
-      <c r="V9" t="s">
-        <v>92</v>
-      </c>
-      <c r="W9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="2:56">
-      <c r="B10" s="2" t="s">
-        <v>95</v>
+    <row r="10" spans="2:57">
+      <c r="B10" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
-      <c r="D10" t="s">
-        <v>81</v>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
         <v>84</v>
       </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" t="s">
-        <v>92</v>
-      </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="U10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Z10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AB10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AE10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AH10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AI10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AL10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AO10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AP10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AQ10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AR10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AS10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AT10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AU10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AV10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AW10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AX10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AY10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AZ10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BA10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BB10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BC10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BD10" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:57">
       <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11">
         <v>300</v>
       </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="U11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Z11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AB11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AE11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AH11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AI11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AL11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AM11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AO11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AP11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AQ11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AR11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AS11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AT11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AU11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AV11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AW11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AX11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AY11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AZ11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BA11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BB11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BC11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BD11" t="s">
-        <v>92</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="cellIs" dxfId="0" priority="190" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J5:J11">
+    <cfRule type="cellIs" dxfId="0" priority="188" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K11">
     <cfRule type="cellIs" dxfId="0" priority="189" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L11">
+    <cfRule type="cellIs" dxfId="0" priority="186" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M5:M11">
+    <cfRule type="cellIs" dxfId="0" priority="187" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N11">
     <cfRule type="cellIs" dxfId="0" priority="184" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N11">
+  <conditionalFormatting sqref="O5:O11">
     <cfRule type="cellIs" dxfId="0" priority="181" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N1048576">
+  <conditionalFormatting sqref="O12:O1048576">
     <cfRule type="cellIs" dxfId="0" priority="183" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O11">
+  <conditionalFormatting sqref="P5:P11">
     <cfRule type="cellIs" dxfId="0" priority="178" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O1048576">
+  <conditionalFormatting sqref="P12:P1048576">
     <cfRule type="cellIs" dxfId="0" priority="180" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P11">
+  <conditionalFormatting sqref="Q5:Q11">
     <cfRule type="cellIs" dxfId="0" priority="175" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P1048576">
+  <conditionalFormatting sqref="Q12:Q1048576">
     <cfRule type="cellIs" dxfId="0" priority="177" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q11">
+  <conditionalFormatting sqref="R5:R11">
     <cfRule type="cellIs" dxfId="0" priority="172" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q1048576">
+  <conditionalFormatting sqref="R12:R1048576">
     <cfRule type="cellIs" dxfId="0" priority="174" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R11">
+  <conditionalFormatting sqref="S5:S11">
     <cfRule type="cellIs" dxfId="0" priority="169" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R1048576">
+  <conditionalFormatting sqref="S12:S1048576">
     <cfRule type="cellIs" dxfId="0" priority="171" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S11">
+  <conditionalFormatting sqref="T5:T11">
     <cfRule type="cellIs" dxfId="0" priority="166" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S1048576">
+  <conditionalFormatting sqref="T12:T1048576">
     <cfRule type="cellIs" dxfId="0" priority="168" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T11">
+  <conditionalFormatting sqref="U5:U11">
     <cfRule type="cellIs" dxfId="0" priority="163" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T1048576">
+  <conditionalFormatting sqref="U12:U1048576">
     <cfRule type="cellIs" dxfId="0" priority="165" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U11">
+  <conditionalFormatting sqref="V5:V11">
     <cfRule type="cellIs" dxfId="0" priority="160" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U1048576">
+  <conditionalFormatting sqref="V12:V1048576">
     <cfRule type="cellIs" dxfId="0" priority="162" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V11">
+  <conditionalFormatting sqref="W5:W11">
     <cfRule type="cellIs" dxfId="0" priority="157" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V1048576">
+  <conditionalFormatting sqref="W12:W1048576">
     <cfRule type="cellIs" dxfId="0" priority="159" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W5:W11">
+  <conditionalFormatting sqref="X5:X11">
     <cfRule type="cellIs" dxfId="0" priority="154" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12:W1048576">
+  <conditionalFormatting sqref="X12:X1048576">
     <cfRule type="cellIs" dxfId="0" priority="156" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X5:X11">
+  <conditionalFormatting sqref="Y5:Y11">
     <cfRule type="cellIs" dxfId="0" priority="151" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12:X1048576">
+  <conditionalFormatting sqref="Y12:Y1048576">
     <cfRule type="cellIs" dxfId="0" priority="153" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y5:Y11">
+  <conditionalFormatting sqref="Z5:Z11">
     <cfRule type="cellIs" dxfId="0" priority="148" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12:Y1048576">
+  <conditionalFormatting sqref="Z12:Z1048576">
     <cfRule type="cellIs" dxfId="0" priority="150" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z11">
+  <conditionalFormatting sqref="AA5:AA11">
     <cfRule type="cellIs" dxfId="0" priority="145" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z12:Z1048576">
+  <conditionalFormatting sqref="AA12:AA1048576">
     <cfRule type="cellIs" dxfId="0" priority="147" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA11">
+  <conditionalFormatting sqref="AB5:AB11">
     <cfRule type="cellIs" dxfId="0" priority="137" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA12:AA1048576">
+  <conditionalFormatting sqref="AB12:AB1048576">
     <cfRule type="cellIs" dxfId="0" priority="141" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB11">
+  <conditionalFormatting sqref="AC5:AC11">
     <cfRule type="cellIs" dxfId="0" priority="136" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12:AB1048576">
+  <conditionalFormatting sqref="AC12:AC1048576">
     <cfRule type="cellIs" dxfId="0" priority="140" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC5:AC11">
+  <conditionalFormatting sqref="AD5:AD11">
     <cfRule type="cellIs" dxfId="0" priority="133" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12:AC1048576">
+  <conditionalFormatting sqref="AD12:AD1048576">
     <cfRule type="cellIs" dxfId="0" priority="135" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD5:AD11">
+  <conditionalFormatting sqref="AE5:AE11">
     <cfRule type="cellIs" dxfId="0" priority="130" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD12:AD1048576">
+  <conditionalFormatting sqref="AE12:AE1048576">
     <cfRule type="cellIs" dxfId="0" priority="132" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE5:AE11">
+  <conditionalFormatting sqref="AF5:AF11">
     <cfRule type="cellIs" dxfId="0" priority="127" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE12:AE1048576">
+  <conditionalFormatting sqref="AF12:AF1048576">
     <cfRule type="cellIs" dxfId="0" priority="129" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AF11">
+  <conditionalFormatting sqref="AG5:AG11">
     <cfRule type="cellIs" dxfId="0" priority="124" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AF1048576">
+  <conditionalFormatting sqref="AG12:AG1048576">
     <cfRule type="cellIs" dxfId="0" priority="126" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG5:AG11">
+  <conditionalFormatting sqref="AH5:AH11">
     <cfRule type="cellIs" dxfId="0" priority="121" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG12:AG1048576">
+  <conditionalFormatting sqref="AH12:AH1048576">
     <cfRule type="cellIs" dxfId="0" priority="123" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AH11">
+  <conditionalFormatting sqref="AI5:AI11">
     <cfRule type="cellIs" dxfId="0" priority="118" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12:AH1048576">
+  <conditionalFormatting sqref="AI12:AI1048576">
     <cfRule type="cellIs" dxfId="0" priority="120" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AI11">
+  <conditionalFormatting sqref="AJ5:AJ11">
     <cfRule type="cellIs" dxfId="0" priority="115" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI12:AI1048576">
+  <conditionalFormatting sqref="AJ12:AJ1048576">
     <cfRule type="cellIs" dxfId="0" priority="117" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ5:AJ11">
+  <conditionalFormatting sqref="AK5:AK11">
     <cfRule type="cellIs" dxfId="0" priority="112" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12:AJ1048576">
+  <conditionalFormatting sqref="AK12:AK1048576">
     <cfRule type="cellIs" dxfId="0" priority="114" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AK11">
+  <conditionalFormatting sqref="AL5:AL11">
     <cfRule type="cellIs" dxfId="0" priority="109" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK12:AK1048576">
+  <conditionalFormatting sqref="AL12:AL1048576">
     <cfRule type="cellIs" dxfId="0" priority="111" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AL11">
+  <conditionalFormatting sqref="AM5:AM11">
     <cfRule type="cellIs" dxfId="0" priority="106" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL12:AL1048576">
+  <conditionalFormatting sqref="AM12:AM1048576">
     <cfRule type="cellIs" dxfId="0" priority="108" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM5:AM11">
+  <conditionalFormatting sqref="AN5:AN11">
     <cfRule type="cellIs" dxfId="0" priority="103" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM12:AM1048576">
+  <conditionalFormatting sqref="AN12:AN1048576">
     <cfRule type="cellIs" dxfId="0" priority="105" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN11">
+  <conditionalFormatting sqref="AO5:AO11">
     <cfRule type="cellIs" dxfId="0" priority="98" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN12:AN1048576">
+  <conditionalFormatting sqref="AO12:AO1048576">
     <cfRule type="cellIs" dxfId="0" priority="102" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO5:AO11">
+  <conditionalFormatting sqref="AP5:AP11">
     <cfRule type="cellIs" dxfId="0" priority="97" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO12:AO1048576">
+  <conditionalFormatting sqref="AP12:AP1048576">
     <cfRule type="cellIs" dxfId="0" priority="101" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP5:AP11">
+  <conditionalFormatting sqref="AQ5:AQ11">
     <cfRule type="cellIs" dxfId="0" priority="94" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP12:AP1048576">
+  <conditionalFormatting sqref="AQ12:AQ1048576">
     <cfRule type="cellIs" dxfId="0" priority="96" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ5:AQ11">
+  <conditionalFormatting sqref="AR5:AR11">
     <cfRule type="cellIs" dxfId="0" priority="91" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ12:AQ1048576">
+  <conditionalFormatting sqref="AR12:AR1048576">
     <cfRule type="cellIs" dxfId="0" priority="93" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR5:AR11">
+  <conditionalFormatting sqref="AS5:AS11">
     <cfRule type="cellIs" dxfId="0" priority="88" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR12:AR1048576">
+  <conditionalFormatting sqref="AS12:AS1048576">
     <cfRule type="cellIs" dxfId="0" priority="90" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS5:AS11">
+  <conditionalFormatting sqref="AT5:AT11">
     <cfRule type="cellIs" dxfId="0" priority="85" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS12:AS1048576">
+  <conditionalFormatting sqref="AT12:AT1048576">
     <cfRule type="cellIs" dxfId="0" priority="87" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT5:AT11">
+  <conditionalFormatting sqref="AU5:AU11">
     <cfRule type="cellIs" dxfId="0" priority="82" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT12:AT1048576">
+  <conditionalFormatting sqref="AU12:AU1048576">
     <cfRule type="cellIs" dxfId="0" priority="84" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU5:AU11">
+  <conditionalFormatting sqref="AV5:AV11">
     <cfRule type="cellIs" dxfId="0" priority="79" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU12:AU1048576">
+  <conditionalFormatting sqref="AV12:AV1048576">
     <cfRule type="cellIs" dxfId="0" priority="81" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV5:AV11">
+  <conditionalFormatting sqref="AW5:AW11">
     <cfRule type="cellIs" dxfId="0" priority="76" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV12:AV1048576">
+  <conditionalFormatting sqref="AW12:AW1048576">
     <cfRule type="cellIs" dxfId="0" priority="78" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW5:AW11">
+  <conditionalFormatting sqref="AX5:AX11">
     <cfRule type="cellIs" dxfId="0" priority="73" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW12:AW1048576">
+  <conditionalFormatting sqref="AX12:AX1048576">
     <cfRule type="cellIs" dxfId="0" priority="75" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX5:AX11">
+  <conditionalFormatting sqref="AY5:AY11">
     <cfRule type="cellIs" dxfId="0" priority="70" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX12:AX1048576">
+  <conditionalFormatting sqref="AY12:AY1048576">
     <cfRule type="cellIs" dxfId="0" priority="72" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY5:AY11">
+  <conditionalFormatting sqref="AZ5:AZ11">
     <cfRule type="cellIs" dxfId="0" priority="67" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY12:AY1048576">
+  <conditionalFormatting sqref="AZ12:AZ1048576">
     <cfRule type="cellIs" dxfId="0" priority="69" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ5:AZ11">
+  <conditionalFormatting sqref="BA5:BA11">
     <cfRule type="cellIs" dxfId="0" priority="64" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ12:AZ1048576">
+  <conditionalFormatting sqref="BA12:BA1048576">
     <cfRule type="cellIs" dxfId="0" priority="66" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA5:BA11">
+  <conditionalFormatting sqref="BB5:BB11">
     <cfRule type="cellIs" dxfId="0" priority="59" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA12:BA1048576">
+  <conditionalFormatting sqref="BB12:BB1048576">
     <cfRule type="cellIs" dxfId="0" priority="63" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB5:BB11">
+  <conditionalFormatting sqref="BC5:BC11">
     <cfRule type="cellIs" dxfId="0" priority="58" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB12:BB1048576">
+  <conditionalFormatting sqref="BC12:BC1048576">
     <cfRule type="cellIs" dxfId="0" priority="62" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC5:BC11">
+  <conditionalFormatting sqref="BD5:BD11">
     <cfRule type="cellIs" dxfId="0" priority="55" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC12:BC1048576">
+  <conditionalFormatting sqref="BD12:BD1048576">
     <cfRule type="cellIs" dxfId="0" priority="57" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD5:BD11">
+  <conditionalFormatting sqref="BE5:BE11">
     <cfRule type="cellIs" dxfId="0" priority="52" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD12:BD1048576">
+  <conditionalFormatting sqref="BE12:BE1048576">
     <cfRule type="cellIs" dxfId="0" priority="54" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE1:BE4">
+  <conditionalFormatting sqref="BF1:BF4">
     <cfRule type="cellIs" dxfId="0" priority="50" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE5:BE11">
+  <conditionalFormatting sqref="BF5:BF11">
     <cfRule type="cellIs" dxfId="0" priority="49" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE12:BE1048576">
+  <conditionalFormatting sqref="BF12:BF1048576">
     <cfRule type="cellIs" dxfId="0" priority="51" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF1:BF4">
+  <conditionalFormatting sqref="BG1:BG4">
     <cfRule type="cellIs" dxfId="0" priority="47" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF5:BF11">
+  <conditionalFormatting sqref="BG5:BG11">
     <cfRule type="cellIs" dxfId="0" priority="46" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF12:BF1048576">
+  <conditionalFormatting sqref="BG12:BG1048576">
     <cfRule type="cellIs" dxfId="0" priority="48" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG1:BG4">
+  <conditionalFormatting sqref="BH1:BH4">
     <cfRule type="cellIs" dxfId="0" priority="44" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG5:BG11">
+  <conditionalFormatting sqref="BH5:BH11">
     <cfRule type="cellIs" dxfId="0" priority="43" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG12:BG1048576">
+  <conditionalFormatting sqref="BH12:BH1048576">
     <cfRule type="cellIs" dxfId="0" priority="45" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH1:BH4">
+  <conditionalFormatting sqref="BI1:BI4">
     <cfRule type="cellIs" dxfId="0" priority="41" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH5:BH11">
+  <conditionalFormatting sqref="BI5:BI11">
     <cfRule type="cellIs" dxfId="0" priority="40" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH12:BH1048576">
+  <conditionalFormatting sqref="BI12:BI1048576">
     <cfRule type="cellIs" dxfId="0" priority="42" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI1:BI4">
+  <conditionalFormatting sqref="BJ1:BJ4">
     <cfRule type="cellIs" dxfId="0" priority="38" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI5:BI11">
+  <conditionalFormatting sqref="BJ5:BJ11">
     <cfRule type="cellIs" dxfId="0" priority="37" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI12:BI1048576">
+  <conditionalFormatting sqref="BJ12:BJ1048576">
     <cfRule type="cellIs" dxfId="0" priority="39" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ1:BJ4">
+  <conditionalFormatting sqref="BK1:BK4">
     <cfRule type="cellIs" dxfId="0" priority="35" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ5:BJ11">
+  <conditionalFormatting sqref="BK5:BK11">
     <cfRule type="cellIs" dxfId="0" priority="34" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ12:BJ1048576">
+  <conditionalFormatting sqref="BK12:BK1048576">
     <cfRule type="cellIs" dxfId="0" priority="36" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK1:BK4">
+  <conditionalFormatting sqref="BL1:BL4">
     <cfRule type="cellIs" dxfId="0" priority="32" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK5:BK11">
+  <conditionalFormatting sqref="BL5:BL11">
     <cfRule type="cellIs" dxfId="0" priority="31" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK12:BK1048576">
+  <conditionalFormatting sqref="BL12:BL1048576">
     <cfRule type="cellIs" dxfId="0" priority="33" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL1:BL4">
+  <conditionalFormatting sqref="BM1:BM4">
     <cfRule type="cellIs" dxfId="0" priority="29" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL5:BL11">
+  <conditionalFormatting sqref="BM5:BM11">
     <cfRule type="cellIs" dxfId="0" priority="28" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL12:BL1048576">
+  <conditionalFormatting sqref="BM12:BM1048576">
     <cfRule type="cellIs" dxfId="0" priority="30" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM1:BM4">
+  <conditionalFormatting sqref="BN1:BN4">
     <cfRule type="cellIs" dxfId="0" priority="26" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM5:BM11">
+  <conditionalFormatting sqref="BN5:BN11">
     <cfRule type="cellIs" dxfId="0" priority="25" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM12:BM1048576">
+  <conditionalFormatting sqref="BN12:BN1048576">
     <cfRule type="cellIs" dxfId="0" priority="27" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN1:BN4">
+  <conditionalFormatting sqref="BO1:BO4">
     <cfRule type="cellIs" dxfId="0" priority="22" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN5:BN11">
+  <conditionalFormatting sqref="BO5:BO11">
     <cfRule type="cellIs" dxfId="0" priority="20" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN12:BN1048576">
+  <conditionalFormatting sqref="BO12:BO1048576">
     <cfRule type="cellIs" dxfId="0" priority="24" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO1:BO4">
+  <conditionalFormatting sqref="BP1:BP4">
     <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO5:BO11">
+  <conditionalFormatting sqref="BP5:BP11">
     <cfRule type="cellIs" dxfId="0" priority="19" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO12:BO1048576">
+  <conditionalFormatting sqref="BP12:BP1048576">
     <cfRule type="cellIs" dxfId="0" priority="23" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP1:BP4">
+  <conditionalFormatting sqref="BQ1:BQ4">
     <cfRule type="cellIs" dxfId="0" priority="17" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP5:BP11">
+  <conditionalFormatting sqref="BQ5:BQ11">
     <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP12:BP1048576">
+  <conditionalFormatting sqref="BQ12:BQ1048576">
     <cfRule type="cellIs" dxfId="0" priority="18" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ1:BQ4">
+  <conditionalFormatting sqref="BR1:BR4">
     <cfRule type="cellIs" dxfId="0" priority="14" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ5:BQ11">
+  <conditionalFormatting sqref="BR5:BR11">
     <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ12:BQ1048576">
+  <conditionalFormatting sqref="BR12:BR1048576">
     <cfRule type="cellIs" dxfId="0" priority="15" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR1:BR4">
+  <conditionalFormatting sqref="BS1:BS4">
     <cfRule type="cellIs" dxfId="0" priority="11" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR5:BR11">
+  <conditionalFormatting sqref="BS5:BS11">
     <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR12:BR1048576">
+  <conditionalFormatting sqref="BS12:BS1048576">
     <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS1:BS4">
+  <conditionalFormatting sqref="BT1:BT4">
     <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS5:BS11">
+  <conditionalFormatting sqref="BT5:BT11">
     <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS12:BS1048576">
+  <conditionalFormatting sqref="BT12:BT1048576">
     <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT1:BT4">
+  <conditionalFormatting sqref="BU1:BU4">
     <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT5:BT11">
+  <conditionalFormatting sqref="BU5:BU11">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT12:BT1048576">
+  <conditionalFormatting sqref="BU12:BU1048576">
     <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU1:BU4">
+  <conditionalFormatting sqref="BV1:BV4">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU5:BU11">
+  <conditionalFormatting sqref="BV5:BV11">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU12:BU1048576">
+  <conditionalFormatting sqref="BV12:BV1048576">
     <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:L3 A4:I4 L4 A5:B5 A11 A6:A8 B6:B11">
+  <conditionalFormatting sqref="A1:C4 B6:B11 A6:A8 A11 A5:B5 D1:M3 D4:J4 M4">
     <cfRule type="cellIs" dxfId="0" priority="197" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV$1:XFD$1048576 A12:M1048576">
+  <conditionalFormatting sqref="A12:N1048576 BW$1:XFD$1048576">
     <cfRule type="cellIs" dxfId="0" priority="198" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M4 N3:BD3">
+  <conditionalFormatting sqref="N1:N4 O3:BE3">
     <cfRule type="cellIs" dxfId="0" priority="185" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N2 N4">
+  <conditionalFormatting sqref="O1:O2 O4">
     <cfRule type="cellIs" dxfId="0" priority="182" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O2 O4">
+  <conditionalFormatting sqref="P1:P2 P4">
     <cfRule type="cellIs" dxfId="0" priority="179" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P2 P4">
+  <conditionalFormatting sqref="Q1:Q2 Q4">
     <cfRule type="cellIs" dxfId="0" priority="176" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q2 Q4">
+  <conditionalFormatting sqref="R1:R2 R4">
     <cfRule type="cellIs" dxfId="0" priority="173" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R2 R4">
+  <conditionalFormatting sqref="S1:S2 S4">
     <cfRule type="cellIs" dxfId="0" priority="170" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S2 S4">
+  <conditionalFormatting sqref="T1:T2 T4">
     <cfRule type="cellIs" dxfId="0" priority="167" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T2 T4">
+  <conditionalFormatting sqref="U1:U2 U4">
     <cfRule type="cellIs" dxfId="0" priority="164" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U2 U4">
+  <conditionalFormatting sqref="V1:V2 V4">
     <cfRule type="cellIs" dxfId="0" priority="161" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V2 V4">
+  <conditionalFormatting sqref="W1:W2 W4">
     <cfRule type="cellIs" dxfId="0" priority="158" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W2 W4">
+  <conditionalFormatting sqref="X1:X2 X4">
     <cfRule type="cellIs" dxfId="0" priority="155" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X2 X4">
+  <conditionalFormatting sqref="Y1:Y2 Y4">
     <cfRule type="cellIs" dxfId="0" priority="152" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y2 Y4">
+  <conditionalFormatting sqref="Z1:Z2 Z4">
     <cfRule type="cellIs" dxfId="0" priority="149" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z2 Z4">
+  <conditionalFormatting sqref="AA1:AA2 AA4">
     <cfRule type="cellIs" dxfId="0" priority="146" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AA2 AA4">
+  <conditionalFormatting sqref="AB1:AB2 AB4">
     <cfRule type="cellIs" dxfId="0" priority="139" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB2 AB4">
+  <conditionalFormatting sqref="AC1:AC2 AC4">
     <cfRule type="cellIs" dxfId="0" priority="138" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AC2 AC4">
+  <conditionalFormatting sqref="AD1:AD2 AD4">
     <cfRule type="cellIs" dxfId="0" priority="134" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD2 AD4">
+  <conditionalFormatting sqref="AE1:AE2 AE4">
     <cfRule type="cellIs" dxfId="0" priority="131" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE2 AE4">
+  <conditionalFormatting sqref="AF1:AF2 AF4">
     <cfRule type="cellIs" dxfId="0" priority="128" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF2 AF4">
+  <conditionalFormatting sqref="AG1:AG2 AG4">
     <cfRule type="cellIs" dxfId="0" priority="125" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG2 AG4">
+  <conditionalFormatting sqref="AH1:AH2 AH4">
     <cfRule type="cellIs" dxfId="0" priority="122" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH2 AH4">
+  <conditionalFormatting sqref="AI1:AI2 AI4">
     <cfRule type="cellIs" dxfId="0" priority="119" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI2 AI4">
+  <conditionalFormatting sqref="AJ1:AJ2 AJ4">
     <cfRule type="cellIs" dxfId="0" priority="116" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AJ2 AJ4">
+  <conditionalFormatting sqref="AK1:AK2 AK4">
     <cfRule type="cellIs" dxfId="0" priority="113" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK1:AK2 AK4">
+  <conditionalFormatting sqref="AL1:AL2 AL4">
     <cfRule type="cellIs" dxfId="0" priority="110" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL1:AL2 AL4">
+  <conditionalFormatting sqref="AM1:AM2 AM4">
     <cfRule type="cellIs" dxfId="0" priority="107" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM1:AM2 AM4">
+  <conditionalFormatting sqref="AN1:AN2 AN4">
     <cfRule type="cellIs" dxfId="0" priority="104" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN1:AN2 AN4">
+  <conditionalFormatting sqref="AO1:AO2 AO4">
     <cfRule type="cellIs" dxfId="0" priority="100" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO1:AO2 AO4">
+  <conditionalFormatting sqref="AP1:AP2 AP4">
     <cfRule type="cellIs" dxfId="0" priority="99" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP1:AP2 AP4">
+  <conditionalFormatting sqref="AQ1:AQ2 AQ4">
     <cfRule type="cellIs" dxfId="0" priority="95" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ1:AQ2 AQ4">
+  <conditionalFormatting sqref="AR1:AR2 AR4">
     <cfRule type="cellIs" dxfId="0" priority="92" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR1:AR2 AR4">
+  <conditionalFormatting sqref="AS1:AS2 AS4">
     <cfRule type="cellIs" dxfId="0" priority="89" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS1:AS2 AS4">
+  <conditionalFormatting sqref="AT1:AT2 AT4">
     <cfRule type="cellIs" dxfId="0" priority="86" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT1:AT2 AT4">
+  <conditionalFormatting sqref="AU1:AU2 AU4">
     <cfRule type="cellIs" dxfId="0" priority="83" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU1:AU2 AU4">
+  <conditionalFormatting sqref="AV1:AV2 AV4">
     <cfRule type="cellIs" dxfId="0" priority="80" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV1:AV2 AV4">
+  <conditionalFormatting sqref="AW1:AW2 AW4">
     <cfRule type="cellIs" dxfId="0" priority="77" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW1:AW2 AW4">
+  <conditionalFormatting sqref="AX1:AX2 AX4">
     <cfRule type="cellIs" dxfId="0" priority="74" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX1:AX2 AX4">
+  <conditionalFormatting sqref="AY1:AY2 AY4">
     <cfRule type="cellIs" dxfId="0" priority="71" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:AY2 AY4">
+  <conditionalFormatting sqref="AZ1:AZ2 AZ4">
     <cfRule type="cellIs" dxfId="0" priority="68" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ1:AZ2 AZ4">
+  <conditionalFormatting sqref="BA1:BA2 BA4">
     <cfRule type="cellIs" dxfId="0" priority="65" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA1:BA2 BA4">
+  <conditionalFormatting sqref="BB1:BB2 BB4">
     <cfRule type="cellIs" dxfId="0" priority="61" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB1:BB2 BB4">
+  <conditionalFormatting sqref="BC1:BC2 BC4">
     <cfRule type="cellIs" dxfId="0" priority="60" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC1:BC2 BC4">
+  <conditionalFormatting sqref="BD1:BD2 BD4">
     <cfRule type="cellIs" dxfId="0" priority="56" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD1:BD2 BD4">
+  <conditionalFormatting sqref="BE1:BE2 BE4">
     <cfRule type="cellIs" dxfId="0" priority="53" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:G5 C6:G11">
+  <conditionalFormatting sqref="C5:H11">
     <cfRule type="cellIs" dxfId="0" priority="191" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H6:H11">
-    <cfRule type="cellIs" dxfId="0" priority="190" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I6:I11">
-    <cfRule type="cellIs" dxfId="0" priority="188" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5 K6:K11">
-    <cfRule type="cellIs" dxfId="0" priority="186" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L6:L11">
-    <cfRule type="cellIs" dxfId="0" priority="187" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tool-packages/excel2all/__test__/test-excel-files/LongColKeySetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/LongColKeySetting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="101">
   <si>
     <t>LongColKeySetting</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>{"公众号":"玩转游戏开发"}</t>
-  </si>
-  <si>
-    <t>{'公众号":"玩转游戏开发"}</t>
   </si>
   <si>
     <t>22</t>
@@ -328,9 +325,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -338,6 +335,43 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,14 +384,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,31 +427,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,50 +466,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,23 +482,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,7 +498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,19 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +588,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,13 +636,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,73 +666,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,6 +698,24 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -736,15 +751,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -756,15 +762,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,154 +794,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,8 +1290,8 @@
   <sheetPr/>
   <dimension ref="A1:BE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1882,7 +1879,7 @@
         <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
         <v>86</v>
@@ -2019,7 +2016,7 @@
     </row>
     <row r="6" spans="2:57">
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -2031,7 +2028,7 @@
         <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -2043,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
         <v>84</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="7" spans="2:57">
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>60000</v>
@@ -2198,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
         <v>85</v>
@@ -2216,7 +2213,7 @@
         <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
         <v>86</v>
@@ -2359,10 +2356,10 @@
     </row>
     <row r="8" spans="1:57">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
@@ -2374,7 +2371,7 @@
         <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
         <v>87</v>
@@ -2386,147 +2383,147 @@
         <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
         <v>87</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BC8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:57">
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2535,13 +2532,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
         <v>87</v>
@@ -2553,150 +2550,150 @@
         <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s">
         <v>87</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BC9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:57">
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -2711,7 +2708,7 @@
         <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
         <v>87</v>
@@ -2726,163 +2723,163 @@
         <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
         <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BC10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:57">
       <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
         <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>
@@ -2894,145 +2891,145 @@
         <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
         <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BC11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="4:4">
